--- a/Code/Results/Cases/Case_5_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_213/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.9678132418237</v>
+        <v>11.0429782294745</v>
       </c>
       <c r="C2">
-        <v>7.636305045960984</v>
+        <v>8.908426769806431</v>
       </c>
       <c r="D2">
-        <v>5.461456939607594</v>
+        <v>6.038570938916996</v>
       </c>
       <c r="E2">
-        <v>7.746260415004746</v>
+        <v>12.59899722849428</v>
       </c>
       <c r="F2">
-        <v>20.2882418607079</v>
+        <v>28.63153133745559</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>16.62103865809223</v>
+        <v>25.91616189452973</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.2373595883687</v>
+        <v>8.510001872591852</v>
       </c>
       <c r="L2">
-        <v>6.376997697438293</v>
+        <v>10.18228369431872</v>
       </c>
       <c r="M2">
-        <v>9.375229797368689</v>
+        <v>13.60919536096916</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.88010451600465</v>
+        <v>25.73360879268883</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.1169901202597</v>
+        <v>10.79659435792805</v>
       </c>
       <c r="C3">
-        <v>7.52739596989078</v>
+        <v>8.874182159500899</v>
       </c>
       <c r="D3">
-        <v>5.323986801359413</v>
+        <v>5.990179931017614</v>
       </c>
       <c r="E3">
-        <v>7.769559819323116</v>
+        <v>12.62948369414344</v>
       </c>
       <c r="F3">
-        <v>20.09346805683451</v>
+        <v>28.6883234186766</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>16.78461353625934</v>
+        <v>26.01196085566676</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.64713334415604</v>
+        <v>8.322947988888117</v>
       </c>
       <c r="L3">
-        <v>6.297103787399946</v>
+        <v>10.19043898025124</v>
       </c>
       <c r="M3">
-        <v>9.039703541847691</v>
+        <v>13.57305300077464</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.93463776431536</v>
+        <v>25.81635565935115</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.56378531057649</v>
+        <v>10.64411892195413</v>
       </c>
       <c r="C4">
-        <v>7.45977015765876</v>
+        <v>8.852898917257686</v>
       </c>
       <c r="D4">
-        <v>5.237240333409636</v>
+        <v>5.959787623884229</v>
       </c>
       <c r="E4">
-        <v>7.787491654826193</v>
+        <v>12.6498422482121</v>
       </c>
       <c r="F4">
-        <v>19.99018163753236</v>
+        <v>28.72990042668</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>16.89587216200837</v>
+        <v>26.07520621252328</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.26712076912793</v>
+        <v>8.207052698407255</v>
       </c>
       <c r="L4">
-        <v>6.250406875758008</v>
+        <v>10.19683424986208</v>
       </c>
       <c r="M4">
-        <v>8.830535950893136</v>
+        <v>13.55267232263873</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.98092527299752</v>
+        <v>25.87207355515976</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.3305770726432</v>
+        <v>10.58177202474375</v>
       </c>
       <c r="C5">
-        <v>7.432035373959874</v>
+        <v>8.844163446659428</v>
       </c>
       <c r="D5">
-        <v>5.201329704510515</v>
+        <v>5.947236017613102</v>
       </c>
       <c r="E5">
-        <v>7.795690732612479</v>
+        <v>12.65855117777661</v>
       </c>
       <c r="F5">
-        <v>19.95211755152902</v>
+        <v>28.74852682541429</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>16.94383768630941</v>
+        <v>26.10209152440307</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.10790876261718</v>
+        <v>8.159627079494939</v>
       </c>
       <c r="L5">
-        <v>6.231979461619003</v>
+        <v>10.19978990835933</v>
       </c>
       <c r="M5">
-        <v>8.744630002101401</v>
+        <v>13.54482817205532</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.00288878267216</v>
+        <v>25.89601247502313</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.29138279544615</v>
+        <v>10.57140921805473</v>
       </c>
       <c r="C6">
-        <v>7.427419756438383</v>
+        <v>8.842709225808644</v>
       </c>
       <c r="D6">
-        <v>5.195333748513963</v>
+        <v>5.945141909668408</v>
       </c>
       <c r="E6">
-        <v>7.797105458916502</v>
+        <v>12.6600222216185</v>
       </c>
       <c r="F6">
-        <v>19.94603781529675</v>
+        <v>28.75172130437073</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>16.95195830411818</v>
+        <v>26.10662298444701</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.08121131560622</v>
+        <v>8.151742118363289</v>
       </c>
       <c r="L6">
-        <v>6.22895619642432</v>
+        <v>10.20030181860291</v>
       </c>
       <c r="M6">
-        <v>8.73032887036428</v>
+        <v>13.54355367049512</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.00671966131497</v>
+        <v>25.9000619658892</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.56067169012901</v>
+        <v>10.64327882869904</v>
       </c>
       <c r="C7">
-        <v>7.459396814388852</v>
+        <v>8.8527813572758</v>
       </c>
       <c r="D7">
-        <v>5.236758262694271</v>
+        <v>5.959619016684587</v>
       </c>
       <c r="E7">
-        <v>7.787598646248887</v>
+        <v>12.64995802862966</v>
       </c>
       <c r="F7">
-        <v>19.98965209698195</v>
+        <v>28.73014481691914</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>16.89650852760739</v>
+        <v>26.07556429382846</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.26499109668525</v>
+        <v>8.20641381133022</v>
       </c>
       <c r="L7">
-        <v>6.250155909016823</v>
+        <v>10.19687269499216</v>
       </c>
       <c r="M7">
-        <v>8.829379926986194</v>
+        <v>13.55256465916662</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.98120908035758</v>
+        <v>25.87239141172261</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.68082255511935</v>
+        <v>10.9583251289025</v>
       </c>
       <c r="C8">
-        <v>7.598917661946849</v>
+        <v>8.896673885170356</v>
       </c>
       <c r="D8">
-        <v>5.414558579374651</v>
+        <v>6.022029543047568</v>
       </c>
       <c r="E8">
-        <v>7.753529346662582</v>
+        <v>12.60916883306034</v>
       </c>
       <c r="F8">
-        <v>20.21765840739643</v>
+        <v>28.6497196790944</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>16.67513425664328</v>
+        <v>25.94827494846869</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.03754414162263</v>
+        <v>8.44576052850198</v>
       </c>
       <c r="L8">
-        <v>6.348966549652253</v>
+        <v>10.1848079210054</v>
       </c>
       <c r="M8">
-        <v>9.260265835205583</v>
+        <v>13.59636119950369</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.89617826461087</v>
+        <v>25.76111976388545</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.63457450460104</v>
+        <v>11.56293756808465</v>
       </c>
       <c r="C9">
-        <v>7.86598378854005</v>
+        <v>8.980612265258369</v>
       </c>
       <c r="D9">
-        <v>5.743567302146451</v>
+        <v>6.138827366896424</v>
       </c>
       <c r="E9">
-        <v>7.716401573507503</v>
+        <v>12.54217726433015</v>
       </c>
       <c r="F9">
-        <v>20.79692090559178</v>
+        <v>28.54533338721726</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>16.33142979496791</v>
+        <v>25.73377701991349</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.41036215049181</v>
+        <v>8.904112479171689</v>
       </c>
       <c r="L9">
-        <v>6.561003489606628</v>
+        <v>10.1721357900633</v>
       </c>
       <c r="M9">
-        <v>10.07534933845424</v>
+        <v>13.69634651108438</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.83640641856923</v>
+        <v>25.58194735001238</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.92422641221192</v>
+        <v>11.99441598483723</v>
       </c>
       <c r="C10">
-        <v>8.057551916490578</v>
+        <v>9.040853725767503</v>
       </c>
       <c r="D10">
-        <v>5.971996464335986</v>
+        <v>6.220979651241077</v>
       </c>
       <c r="E10">
-        <v>7.708490574493037</v>
+        <v>12.5008609835164</v>
       </c>
       <c r="F10">
-        <v>21.30610758608201</v>
+        <v>28.50128037746827</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>16.14070337934224</v>
+        <v>25.59760700412052</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.33009609131881</v>
+        <v>9.230710984420549</v>
       </c>
       <c r="L10">
-        <v>6.727285648836618</v>
+        <v>10.16948654731713</v>
       </c>
       <c r="M10">
-        <v>10.65031718845183</v>
+        <v>13.77802261617256</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.86514842643161</v>
+        <v>25.47418913155659</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.47981209801382</v>
+        <v>12.18704041500562</v>
       </c>
       <c r="C11">
-        <v>8.143570734028337</v>
+        <v>9.067922028094323</v>
       </c>
       <c r="D11">
-        <v>6.072794683880176</v>
+        <v>6.257506367075222</v>
       </c>
       <c r="E11">
-        <v>7.709376007400498</v>
+        <v>12.48377663380294</v>
       </c>
       <c r="F11">
-        <v>21.55635389578034</v>
+        <v>28.48834414320976</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>16.06893398550183</v>
+        <v>25.54031461227218</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.72898036678809</v>
+        <v>9.376421774492224</v>
       </c>
       <c r="L11">
-        <v>6.805066588909764</v>
+        <v>10.16971840152535</v>
       </c>
       <c r="M11">
-        <v>10.95506081458376</v>
+        <v>13.81687589485274</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.89560934117581</v>
+        <v>25.43036949716316</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.68577432746163</v>
+        <v>12.25938774354644</v>
       </c>
       <c r="C12">
-        <v>8.17597280108596</v>
+        <v>9.078121432154086</v>
       </c>
       <c r="D12">
-        <v>6.110499545192596</v>
+        <v>6.271212279741426</v>
       </c>
       <c r="E12">
-        <v>7.710379412850862</v>
+        <v>12.47755286245497</v>
       </c>
       <c r="F12">
-        <v>21.65381665709975</v>
+        <v>28.4844674642215</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>16.04405334589248</v>
+        <v>25.51928884190477</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.8772148627018</v>
+        <v>9.431136848611565</v>
       </c>
       <c r="L12">
-        <v>6.834815247598739</v>
+        <v>10.17001190338495</v>
       </c>
       <c r="M12">
-        <v>11.08215798165051</v>
+        <v>13.8318249267502</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.90977630975596</v>
+        <v>25.41452524178099</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.64161280498821</v>
+        <v>12.24383398330527</v>
       </c>
       <c r="C13">
-        <v>8.169002196349954</v>
+        <v>9.075927105726887</v>
       </c>
       <c r="D13">
-        <v>6.102400073260889</v>
+        <v>6.268266138781121</v>
       </c>
       <c r="E13">
-        <v>7.710133222881232</v>
+        <v>12.47888234002377</v>
       </c>
       <c r="F13">
-        <v>21.63270592698895</v>
+        <v>28.48525692147336</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>16.04930735621083</v>
+        <v>25.52378732582824</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.84541514163518</v>
+        <v>9.419374320355347</v>
       </c>
       <c r="L13">
-        <v>6.828395434543598</v>
+        <v>10.16993955954629</v>
       </c>
       <c r="M13">
-        <v>11.05489656815985</v>
+        <v>13.82859501478148</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.9066060403626</v>
+        <v>25.41790423754911</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.49684518034559</v>
+        <v>12.19300478520255</v>
       </c>
       <c r="C14">
-        <v>8.14623995631373</v>
+        <v>9.068762171017905</v>
       </c>
       <c r="D14">
-        <v>6.075906101128613</v>
+        <v>6.258636510566923</v>
       </c>
       <c r="E14">
-        <v>7.709445033693453</v>
+        <v>12.48325967784959</v>
       </c>
       <c r="F14">
-        <v>21.56431799565816</v>
+        <v>28.48800472353018</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>16.06684017278462</v>
+        <v>25.53857138559192</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.74123213559891</v>
+        <v>9.380932764264418</v>
       </c>
       <c r="L14">
-        <v>6.807508194700726</v>
+        <v>10.16973843113997</v>
       </c>
       <c r="M14">
-        <v>10.96556732104253</v>
+        <v>13.81810107549039</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.89672136094423</v>
+        <v>25.42905095546805</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.40759576727671</v>
+        <v>12.161790924279</v>
       </c>
       <c r="C15">
-        <v>8.132274847170081</v>
+        <v>9.06436675562307</v>
       </c>
       <c r="D15">
-        <v>6.059616713426029</v>
+        <v>6.252721549824629</v>
       </c>
       <c r="E15">
-        <v>7.709111202387815</v>
+        <v>12.48597291252311</v>
       </c>
       <c r="F15">
-        <v>21.52278059825489</v>
+        <v>28.48982092971</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>16.07788296452543</v>
+        <v>25.54771427247375</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.67705039178242</v>
+        <v>9.357324523621029</v>
       </c>
       <c r="L15">
-        <v>6.794752162408822</v>
+        <v>10.16964199371849</v>
       </c>
       <c r="M15">
-        <v>10.91052462179467</v>
+        <v>13.81170374187675</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.89101339409031</v>
+        <v>25.43597626524535</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.88729579403465</v>
+        <v>11.98174788037809</v>
       </c>
       <c r="C16">
-        <v>8.051906886805451</v>
+        <v>9.039077778526682</v>
       </c>
       <c r="D16">
-        <v>5.965344853176097</v>
+        <v>6.218575159949659</v>
       </c>
       <c r="E16">
-        <v>7.708524926436336</v>
+        <v>12.50201188408262</v>
       </c>
       <c r="F16">
-        <v>21.29013010763633</v>
+        <v>28.50226879049684</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>16.14570724239415</v>
+        <v>25.60144486344421</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.30363455748356</v>
+        <v>9.221126429140341</v>
       </c>
       <c r="L16">
-        <v>6.722244411058156</v>
+        <v>10.16950023317239</v>
       </c>
       <c r="M16">
-        <v>10.63349527660539</v>
+        <v>13.77551695435379</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.86351887696812</v>
+        <v>25.47715761910229</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.56017785197766</v>
+        <v>11.87030958624798</v>
       </c>
       <c r="C17">
-        <v>8.002308177890724</v>
+        <v>9.023476028716603</v>
       </c>
       <c r="D17">
-        <v>5.906701276178509</v>
+        <v>6.197407868708395</v>
       </c>
       <c r="E17">
-        <v>7.709330244821542</v>
+        <v>12.51228920799178</v>
       </c>
       <c r="F17">
-        <v>21.15219288673013</v>
+        <v>28.51172511029245</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>16.19125309789696</v>
+        <v>25.63559880211361</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.06955059289562</v>
+        <v>9.136803147433275</v>
       </c>
       <c r="L17">
-        <v>6.67830176076996</v>
+        <v>10.16978067921029</v>
       </c>
       <c r="M17">
-        <v>10.48537745006645</v>
+        <v>13.75374687163814</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.85119887724948</v>
+        <v>25.50375402768001</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.36909979072515</v>
+        <v>11.80587282400421</v>
       </c>
       <c r="C18">
-        <v>7.973674776464764</v>
+        <v>9.014470852619938</v>
       </c>
       <c r="D18">
-        <v>5.872678709264717</v>
+        <v>6.185153751258198</v>
       </c>
       <c r="E18">
-        <v>7.710214103357176</v>
+        <v>12.51836148360757</v>
       </c>
       <c r="F18">
-        <v>21.07460625538945</v>
+        <v>28.51783277659011</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>16.21885217227884</v>
+        <v>25.65568107526736</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.93307556037139</v>
+        <v>9.088036206367613</v>
       </c>
       <c r="L18">
-        <v>6.653229141172047</v>
+        <v>10.17007730344543</v>
       </c>
       <c r="M18">
-        <v>10.39961025038236</v>
+        <v>13.74138566125186</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.8457413098205</v>
+        <v>25.51954095259232</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.30389977624199</v>
+        <v>11.78399937725227</v>
       </c>
       <c r="C19">
-        <v>7.963962177904205</v>
+        <v>9.011416526619662</v>
       </c>
       <c r="D19">
-        <v>5.861109603628505</v>
+        <v>6.180991244362937</v>
       </c>
       <c r="E19">
-        <v>7.710584907001078</v>
+        <v>12.520445117508</v>
       </c>
       <c r="F19">
-        <v>21.04863671089471</v>
+        <v>28.52001554283624</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>16.22843342554144</v>
+        <v>25.6625557659427</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.88655251675302</v>
+        <v>9.071480417109397</v>
       </c>
       <c r="L19">
-        <v>6.644775075842564</v>
+        <v>10.17020100371162</v>
       </c>
       <c r="M19">
-        <v>10.37047459817978</v>
+        <v>13.73722815248256</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.84416915229994</v>
+        <v>25.52497013699669</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.5953028909221</v>
+        <v>11.88220813232184</v>
       </c>
       <c r="C20">
-        <v>8.007599039436634</v>
+        <v>9.025140135814199</v>
       </c>
       <c r="D20">
-        <v>5.912974371832121</v>
+        <v>6.199669398001935</v>
       </c>
       <c r="E20">
-        <v>7.709200812818741</v>
+        <v>12.51117850528051</v>
       </c>
       <c r="F20">
-        <v>21.16669510721317</v>
+        <v>28.51064926164576</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>16.18625853496373</v>
+        <v>25.6319177384323</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.0946593549068</v>
+        <v>9.145807459920762</v>
       </c>
       <c r="L20">
-        <v>6.682958715076458</v>
+        <v>10.16973682676232</v>
       </c>
       <c r="M20">
-        <v>10.50120473835761</v>
+        <v>13.75604779458358</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.85234085405988</v>
+        <v>25.50087213492155</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.5394867024231</v>
+        <v>12.20795123940114</v>
       </c>
       <c r="C21">
-        <v>8.152930498749528</v>
+        <v>9.070868083807786</v>
       </c>
       <c r="D21">
-        <v>6.083700776749177</v>
+        <v>6.26146841962907</v>
       </c>
       <c r="E21">
-        <v>7.709628852010635</v>
+        <v>12.48196728169885</v>
       </c>
       <c r="F21">
-        <v>21.58433176119274</v>
+        <v>28.48716988988945</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>16.06162686154816</v>
+        <v>25.53421077040009</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.7719096236471</v>
+        <v>9.392236920741427</v>
       </c>
       <c r="L21">
-        <v>6.81363538541186</v>
+        <v>10.1697919325495</v>
       </c>
       <c r="M21">
-        <v>10.99187338992663</v>
+        <v>13.8211770569957</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.89955224730368</v>
+        <v>25.42575654703833</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.13078901797893</v>
+        <v>12.41734428340298</v>
       </c>
       <c r="C22">
-        <v>8.246910476530211</v>
+        <v>9.100456837254292</v>
       </c>
       <c r="D22">
-        <v>6.192562017942199</v>
+        <v>6.3011214399887</v>
       </c>
       <c r="E22">
-        <v>7.713813896617289</v>
+        <v>12.46430805188092</v>
       </c>
       <c r="F22">
-        <v>21.87302521725514</v>
+        <v>28.47778152708348</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>15.99363170708826</v>
+        <v>25.47425696134867</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.19812895282602</v>
+        <v>9.550576240012898</v>
       </c>
       <c r="L22">
-        <v>6.900752276679261</v>
+        <v>10.17102645477342</v>
       </c>
       <c r="M22">
-        <v>11.35716251212381</v>
+        <v>13.8651152415197</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.94581023886594</v>
+        <v>25.38103224291611</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.81754338216159</v>
+        <v>12.30592907426315</v>
       </c>
       <c r="C23">
-        <v>8.19684612968417</v>
+        <v>9.084692767484508</v>
       </c>
       <c r="D23">
-        <v>6.134714628392305</v>
+        <v>6.280026696536685</v>
       </c>
       <c r="E23">
-        <v>7.711215147206439</v>
+        <v>12.47360218505496</v>
       </c>
       <c r="F23">
-        <v>21.71749745613464</v>
+        <v>28.48224721892077</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>16.02864194022843</v>
+        <v>25.50589806074647</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.97214956379035</v>
+        <v>9.46633207088693</v>
       </c>
       <c r="L23">
-        <v>6.854103816136536</v>
+        <v>10.17025823363533</v>
       </c>
       <c r="M23">
-        <v>11.16353193554152</v>
+        <v>13.84154177193536</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.91966866530203</v>
+        <v>25.40450228688652</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.5794322507901</v>
+        <v>11.87682994491839</v>
       </c>
       <c r="C24">
-        <v>8.005207409127316</v>
+        <v>9.024387903460191</v>
       </c>
       <c r="D24">
-        <v>5.910139262039833</v>
+        <v>6.198647224272744</v>
       </c>
       <c r="E24">
-        <v>7.709258019870084</v>
+        <v>12.51168014403413</v>
       </c>
       <c r="F24">
-        <v>21.16013331232579</v>
+        <v>28.5111335624242</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>16.18851218266064</v>
+        <v>25.63358055586033</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.0833135916818</v>
+        <v>9.141737504510816</v>
       </c>
       <c r="L24">
-        <v>6.680852711396327</v>
+        <v>10.16975623065489</v>
       </c>
       <c r="M24">
-        <v>10.49405112332928</v>
+        <v>13.75500706483619</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.85181951370148</v>
+        <v>25.50217349281429</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.13180675142463</v>
+        <v>11.40128735973736</v>
       </c>
       <c r="C25">
-        <v>7.794506318241705</v>
+        <v>8.95814627812927</v>
       </c>
       <c r="D25">
-        <v>5.656809748726255</v>
+        <v>6.107855067381927</v>
       </c>
       <c r="E25">
-        <v>7.723137750669798</v>
+        <v>12.55891101244194</v>
       </c>
       <c r="F25">
-        <v>20.62571401761227</v>
+        <v>28.56784812859129</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>16.41406860260308</v>
+        <v>25.78804359965008</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.05447396835529</v>
+        <v>8.781662443960293</v>
       </c>
       <c r="L25">
-        <v>6.501749490059129</v>
+        <v>10.17439123026892</v>
       </c>
       <c r="M25">
-        <v>9.858676641455727</v>
+        <v>13.66782606666557</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.84035911932313</v>
+        <v>25.62623061960794</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_213/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.0429782294745</v>
+        <v>12.96781324182364</v>
       </c>
       <c r="C2">
-        <v>8.908426769806431</v>
+        <v>7.636305045961335</v>
       </c>
       <c r="D2">
-        <v>6.038570938916996</v>
+        <v>5.461456939607649</v>
       </c>
       <c r="E2">
-        <v>12.59899722849428</v>
+        <v>7.746260415004808</v>
       </c>
       <c r="F2">
-        <v>28.63153133745559</v>
+        <v>20.28824186070785</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>25.91616189452973</v>
+        <v>16.62103865809228</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.510001872591852</v>
+        <v>11.23735958836873</v>
       </c>
       <c r="L2">
-        <v>10.18228369431872</v>
+        <v>6.376997697438267</v>
       </c>
       <c r="M2">
-        <v>13.60919536096916</v>
+        <v>9.375229797368688</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.73360879268883</v>
+        <v>16.88010451600462</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.79659435792805</v>
+        <v>12.11699012025972</v>
       </c>
       <c r="C3">
-        <v>8.874182159500899</v>
+        <v>7.52739596989114</v>
       </c>
       <c r="D3">
-        <v>5.990179931017614</v>
+        <v>5.323986801359407</v>
       </c>
       <c r="E3">
-        <v>12.62948369414344</v>
+        <v>7.769559819323072</v>
       </c>
       <c r="F3">
-        <v>28.6883234186766</v>
+        <v>20.09346805683423</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>26.01196085566676</v>
+        <v>16.78461353625916</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.322947988888117</v>
+        <v>10.64713334415614</v>
       </c>
       <c r="L3">
-        <v>10.19043898025124</v>
+        <v>6.297103787399825</v>
       </c>
       <c r="M3">
-        <v>13.57305300077464</v>
+        <v>9.039703541847626</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.81635565935115</v>
+        <v>16.9346377643151</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.64411892195413</v>
+        <v>11.56378531057651</v>
       </c>
       <c r="C4">
-        <v>8.852898917257686</v>
+        <v>7.459770157658998</v>
       </c>
       <c r="D4">
-        <v>5.959787623884229</v>
+        <v>5.237240333409693</v>
       </c>
       <c r="E4">
-        <v>12.6498422482121</v>
+        <v>7.787491654826131</v>
       </c>
       <c r="F4">
-        <v>28.72990042668</v>
+        <v>19.99018163753219</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>26.07520621252328</v>
+        <v>16.89587216200822</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.207052698407255</v>
+        <v>10.26712076912794</v>
       </c>
       <c r="L4">
-        <v>10.19683424986208</v>
+        <v>6.250406875757984</v>
       </c>
       <c r="M4">
-        <v>13.55267232263873</v>
+        <v>8.830535950893093</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.87207355515976</v>
+        <v>16.98092527299736</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.58177202474375</v>
+        <v>11.33057707264323</v>
       </c>
       <c r="C5">
-        <v>8.844163446659428</v>
+        <v>7.432035373959621</v>
       </c>
       <c r="D5">
-        <v>5.947236017613102</v>
+        <v>5.20132970451056</v>
       </c>
       <c r="E5">
-        <v>12.65855117777661</v>
+        <v>7.795690732612359</v>
       </c>
       <c r="F5">
-        <v>28.74852682541429</v>
+        <v>19.95211755152897</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>26.10209152440307</v>
+        <v>16.94383768630932</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.159627079494939</v>
+        <v>10.10790876261716</v>
       </c>
       <c r="L5">
-        <v>10.19978990835933</v>
+        <v>6.231979461618941</v>
       </c>
       <c r="M5">
-        <v>13.54482817205532</v>
+        <v>8.744630002101362</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.89601247502313</v>
+        <v>17.00288878267213</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.57140921805473</v>
+        <v>11.29138279544617</v>
       </c>
       <c r="C6">
-        <v>8.842709225808644</v>
+        <v>7.427419756438372</v>
       </c>
       <c r="D6">
-        <v>5.945141909668408</v>
+        <v>5.19533374851413</v>
       </c>
       <c r="E6">
-        <v>12.6600222216185</v>
+        <v>7.797105458916569</v>
       </c>
       <c r="F6">
-        <v>28.75172130437073</v>
+        <v>19.94603781529677</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>26.10662298444701</v>
+        <v>16.95195830411827</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.151742118363289</v>
+        <v>10.08121131560619</v>
       </c>
       <c r="L6">
-        <v>10.20030181860291</v>
+        <v>6.228956196424345</v>
       </c>
       <c r="M6">
-        <v>13.54355367049512</v>
+        <v>8.730328870364303</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.9000619658892</v>
+        <v>17.00671966131506</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.64327882869904</v>
+        <v>11.56067169012897</v>
       </c>
       <c r="C7">
-        <v>8.8527813572758</v>
+        <v>7.459396814389095</v>
       </c>
       <c r="D7">
-        <v>5.959619016684587</v>
+        <v>5.236758262694204</v>
       </c>
       <c r="E7">
-        <v>12.64995802862966</v>
+        <v>7.787598646248889</v>
       </c>
       <c r="F7">
-        <v>28.73014481691914</v>
+        <v>19.98965209698184</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>26.07556429382846</v>
+        <v>16.89650852760742</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.20641381133022</v>
+        <v>10.26499109668527</v>
       </c>
       <c r="L7">
-        <v>10.19687269499216</v>
+        <v>6.250155909016798</v>
       </c>
       <c r="M7">
-        <v>13.55256465916662</v>
+        <v>8.82937992698619</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.87239141172261</v>
+        <v>16.98120908035752</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.9583251289025</v>
+        <v>12.68082255511928</v>
       </c>
       <c r="C8">
-        <v>8.896673885170356</v>
+        <v>7.598917661946823</v>
       </c>
       <c r="D8">
-        <v>6.022029543047568</v>
+        <v>5.414558579374761</v>
       </c>
       <c r="E8">
-        <v>12.60916883306034</v>
+        <v>7.753529346662577</v>
       </c>
       <c r="F8">
-        <v>28.6497196790944</v>
+        <v>20.21765840739679</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>25.94827494846869</v>
+        <v>16.67513425664356</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.44576052850198</v>
+        <v>11.03754414162259</v>
       </c>
       <c r="L8">
-        <v>10.1848079210054</v>
+        <v>6.348966549652244</v>
       </c>
       <c r="M8">
-        <v>13.59636119950369</v>
+        <v>9.260265835205582</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.76111976388545</v>
+        <v>16.89617826461114</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.56293756808465</v>
+        <v>14.63457450460104</v>
       </c>
       <c r="C9">
-        <v>8.980612265258369</v>
+        <v>7.865983788540143</v>
       </c>
       <c r="D9">
-        <v>6.138827366896424</v>
+        <v>5.743567302146556</v>
       </c>
       <c r="E9">
-        <v>12.54217726433015</v>
+        <v>7.716401573507628</v>
       </c>
       <c r="F9">
-        <v>28.54533338721726</v>
+        <v>20.79692090559171</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>25.73377701991349</v>
+        <v>16.33142979496786</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.904112479171689</v>
+        <v>12.41036215049182</v>
       </c>
       <c r="L9">
-        <v>10.1721357900633</v>
+        <v>6.561003489606695</v>
       </c>
       <c r="M9">
-        <v>13.69634651108438</v>
+        <v>10.07534933845426</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.58194735001238</v>
+        <v>16.83640641856918</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.99441598483723</v>
+        <v>15.92422641221192</v>
       </c>
       <c r="C10">
-        <v>9.040853725767503</v>
+        <v>8.057551916490695</v>
       </c>
       <c r="D10">
-        <v>6.220979651241077</v>
+        <v>5.971996464335983</v>
       </c>
       <c r="E10">
-        <v>12.5008609835164</v>
+        <v>7.708490574493099</v>
       </c>
       <c r="F10">
-        <v>28.50128037746827</v>
+        <v>21.30610758608196</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>25.59760700412052</v>
+        <v>16.14070337934219</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.230710984420549</v>
+        <v>13.33009609131882</v>
       </c>
       <c r="L10">
-        <v>10.16948654731713</v>
+        <v>6.727285648836628</v>
       </c>
       <c r="M10">
-        <v>13.77802261617256</v>
+        <v>10.65031718845183</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.47418913155659</v>
+        <v>16.86514842643154</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.18704041500562</v>
+        <v>16.47981209801386</v>
       </c>
       <c r="C11">
-        <v>9.067922028094323</v>
+        <v>8.143570734028176</v>
       </c>
       <c r="D11">
-        <v>6.257506367075222</v>
+        <v>6.07279468388026</v>
       </c>
       <c r="E11">
-        <v>12.48377663380294</v>
+        <v>7.709376007400519</v>
       </c>
       <c r="F11">
-        <v>28.48834414320976</v>
+        <v>21.55635389578029</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>25.54031461227218</v>
+        <v>16.06893398550179</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.376421774492224</v>
+        <v>13.72898036678812</v>
       </c>
       <c r="L11">
-        <v>10.16971840152535</v>
+        <v>6.805066588909796</v>
       </c>
       <c r="M11">
-        <v>13.81687589485274</v>
+        <v>10.9550608145838</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.43036949716316</v>
+        <v>16.89560934117578</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.25938774354644</v>
+        <v>16.68577432746165</v>
       </c>
       <c r="C12">
-        <v>9.078121432154086</v>
+        <v>8.175972801085951</v>
       </c>
       <c r="D12">
-        <v>6.271212279741426</v>
+        <v>6.110499545192585</v>
       </c>
       <c r="E12">
-        <v>12.47755286245497</v>
+        <v>7.710379412850873</v>
       </c>
       <c r="F12">
-        <v>28.4844674642215</v>
+        <v>21.65381665709975</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>25.51928884190477</v>
+        <v>16.04405334589243</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.431136848611565</v>
+        <v>13.87721486270176</v>
       </c>
       <c r="L12">
-        <v>10.17001190338495</v>
+        <v>6.834815247598764</v>
       </c>
       <c r="M12">
-        <v>13.8318249267502</v>
+        <v>11.08215798165051</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.41452524178099</v>
+        <v>16.90977630975597</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.24383398330527</v>
+        <v>16.64161280498826</v>
       </c>
       <c r="C13">
-        <v>9.075927105726887</v>
+        <v>8.16900219634992</v>
       </c>
       <c r="D13">
-        <v>6.268266138781121</v>
+        <v>6.102400073260977</v>
       </c>
       <c r="E13">
-        <v>12.47888234002377</v>
+        <v>7.710133222881238</v>
       </c>
       <c r="F13">
-        <v>28.48525692147336</v>
+        <v>21.63270592698895</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>25.52378732582824</v>
+        <v>16.04930735621086</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.419374320355347</v>
+        <v>13.84541514163518</v>
       </c>
       <c r="L13">
-        <v>10.16993955954629</v>
+        <v>6.828395434543571</v>
       </c>
       <c r="M13">
-        <v>13.82859501478148</v>
+        <v>11.05489656815986</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.41790423754911</v>
+        <v>16.90660604036265</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.19300478520255</v>
+        <v>16.49684518034561</v>
       </c>
       <c r="C14">
-        <v>9.068762171017905</v>
+        <v>8.146239956313712</v>
       </c>
       <c r="D14">
-        <v>6.258636510566923</v>
+        <v>6.075906101128496</v>
       </c>
       <c r="E14">
-        <v>12.48325967784959</v>
+        <v>7.709445033693449</v>
       </c>
       <c r="F14">
-        <v>28.48800472353018</v>
+        <v>21.56431799565823</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>25.53857138559192</v>
+        <v>16.06684017278465</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.380932764264418</v>
+        <v>13.74123213559893</v>
       </c>
       <c r="L14">
-        <v>10.16973843113997</v>
+        <v>6.807508194700695</v>
       </c>
       <c r="M14">
-        <v>13.81810107549039</v>
+        <v>10.96556732104253</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.42905095546805</v>
+        <v>16.89672136094427</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.161790924279</v>
+        <v>16.40759576727675</v>
       </c>
       <c r="C15">
-        <v>9.06436675562307</v>
+        <v>8.132274847169976</v>
       </c>
       <c r="D15">
-        <v>6.252721549824629</v>
+        <v>6.059616713425969</v>
       </c>
       <c r="E15">
-        <v>12.48597291252311</v>
+        <v>7.709111202387755</v>
       </c>
       <c r="F15">
-        <v>28.48982092971</v>
+        <v>21.52278059825487</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>25.54771427247375</v>
+        <v>16.07788296452533</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.357324523621029</v>
+        <v>13.67705039178242</v>
       </c>
       <c r="L15">
-        <v>10.16964199371849</v>
+        <v>6.794752162408817</v>
       </c>
       <c r="M15">
-        <v>13.81170374187675</v>
+        <v>10.91052462179469</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.43597626524535</v>
+        <v>16.89101339409023</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.98174788037809</v>
+        <v>15.8872957940346</v>
       </c>
       <c r="C16">
-        <v>9.039077778526682</v>
+        <v>8.051906886805574</v>
       </c>
       <c r="D16">
-        <v>6.218575159949659</v>
+        <v>5.965344853175967</v>
       </c>
       <c r="E16">
-        <v>12.50201188408262</v>
+        <v>7.708524926436386</v>
       </c>
       <c r="F16">
-        <v>28.50226879049684</v>
+        <v>21.29013010763632</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>25.60144486344421</v>
+        <v>16.14570724239415</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.221126429140341</v>
+        <v>13.30363455748356</v>
       </c>
       <c r="L16">
-        <v>10.16950023317239</v>
+        <v>6.722244411058158</v>
       </c>
       <c r="M16">
-        <v>13.77551695435379</v>
+        <v>10.63349527660541</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.47715761910229</v>
+        <v>16.86351887696807</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.87030958624798</v>
+        <v>15.56017785197768</v>
       </c>
       <c r="C17">
-        <v>9.023476028716603</v>
+        <v>8.002308177890601</v>
       </c>
       <c r="D17">
-        <v>6.197407868708395</v>
+        <v>5.906701276178499</v>
       </c>
       <c r="E17">
-        <v>12.51228920799178</v>
+        <v>7.709330244821551</v>
       </c>
       <c r="F17">
-        <v>28.51172511029245</v>
+        <v>21.15219288673005</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>25.63559880211361</v>
+        <v>16.19125309789689</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.136803147433275</v>
+        <v>13.06955059289568</v>
       </c>
       <c r="L17">
-        <v>10.16978067921029</v>
+        <v>6.678301760769967</v>
       </c>
       <c r="M17">
-        <v>13.75374687163814</v>
+        <v>10.48537745006644</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.50375402768001</v>
+        <v>16.85119887724942</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.80587282400421</v>
+        <v>15.36909979072516</v>
       </c>
       <c r="C18">
-        <v>9.014470852619938</v>
+        <v>7.97367477646451</v>
       </c>
       <c r="D18">
-        <v>6.185153751258198</v>
+        <v>5.872678709264881</v>
       </c>
       <c r="E18">
-        <v>12.51836148360757</v>
+        <v>7.710214103357184</v>
       </c>
       <c r="F18">
-        <v>28.51783277659011</v>
+        <v>21.07460625538948</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>25.65568107526736</v>
+        <v>16.2188521722788</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.088036206367613</v>
+        <v>12.93307556037135</v>
       </c>
       <c r="L18">
-        <v>10.17007730344543</v>
+        <v>6.653229141172133</v>
       </c>
       <c r="M18">
-        <v>13.74138566125186</v>
+        <v>10.39961025038238</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.51954095259232</v>
+        <v>16.84574130982057</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.78399937725227</v>
+        <v>15.30389977624201</v>
       </c>
       <c r="C19">
-        <v>9.011416526619662</v>
+        <v>7.963962177903955</v>
       </c>
       <c r="D19">
-        <v>6.180991244362937</v>
+        <v>5.861109603628422</v>
       </c>
       <c r="E19">
-        <v>12.520445117508</v>
+        <v>7.710584907000973</v>
       </c>
       <c r="F19">
-        <v>28.52001554283624</v>
+        <v>21.04863671089473</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>25.6625557659427</v>
+        <v>16.22843342554143</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.071480417109397</v>
+        <v>12.88655251675305</v>
       </c>
       <c r="L19">
-        <v>10.17020100371162</v>
+        <v>6.644775075842528</v>
       </c>
       <c r="M19">
-        <v>13.73722815248256</v>
+        <v>10.37047459817976</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.52497013699669</v>
+        <v>16.84416915229992</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.88220813232184</v>
+        <v>15.59530289092211</v>
       </c>
       <c r="C20">
-        <v>9.025140135814199</v>
+        <v>8.007599039436512</v>
       </c>
       <c r="D20">
-        <v>6.199669398001935</v>
+        <v>5.912974371832176</v>
       </c>
       <c r="E20">
-        <v>12.51117850528051</v>
+        <v>7.709200812818683</v>
       </c>
       <c r="F20">
-        <v>28.51064926164576</v>
+        <v>21.1666951072132</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>25.6319177384323</v>
+        <v>16.18625853496375</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.145807459920762</v>
+        <v>13.09465935490679</v>
       </c>
       <c r="L20">
-        <v>10.16973682676232</v>
+        <v>6.682958715076473</v>
       </c>
       <c r="M20">
-        <v>13.75604779458358</v>
+        <v>10.50120473835763</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.50087213492155</v>
+        <v>16.85234085405995</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.20795123940114</v>
+        <v>16.53948670242313</v>
       </c>
       <c r="C21">
-        <v>9.070868083807786</v>
+        <v>8.152930498749397</v>
       </c>
       <c r="D21">
-        <v>6.26146841962907</v>
+        <v>6.083700776749172</v>
       </c>
       <c r="E21">
-        <v>12.48196728169885</v>
+        <v>7.709628852010588</v>
       </c>
       <c r="F21">
-        <v>28.48716988988945</v>
+        <v>21.58433176119279</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>25.53421077040009</v>
+        <v>16.06162686154815</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.392236920741427</v>
+        <v>13.77190962364711</v>
       </c>
       <c r="L21">
-        <v>10.1697919325495</v>
+        <v>6.813635385411891</v>
       </c>
       <c r="M21">
-        <v>13.8211770569957</v>
+        <v>10.99187338992665</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.42575654703833</v>
+        <v>16.89955224730372</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.41734428340298</v>
+        <v>17.13078901797888</v>
       </c>
       <c r="C22">
-        <v>9.100456837254292</v>
+        <v>8.246910476530561</v>
       </c>
       <c r="D22">
-        <v>6.3011214399887</v>
+        <v>6.192562017942191</v>
       </c>
       <c r="E22">
-        <v>12.46430805188092</v>
+        <v>7.713813896617294</v>
       </c>
       <c r="F22">
-        <v>28.47778152708348</v>
+        <v>21.8730252172552</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>25.47425696134867</v>
+        <v>15.99363170708832</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.550576240012898</v>
+        <v>14.19812895282601</v>
       </c>
       <c r="L22">
-        <v>10.17102645477342</v>
+        <v>6.900752276679191</v>
       </c>
       <c r="M22">
-        <v>13.8651152415197</v>
+        <v>11.35716251212381</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.38103224291611</v>
+        <v>16.94581023886597</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.30592907426315</v>
+        <v>16.81754338216158</v>
       </c>
       <c r="C23">
-        <v>9.084692767484508</v>
+        <v>8.196846129684188</v>
       </c>
       <c r="D23">
-        <v>6.280026696536685</v>
+        <v>6.134714628392461</v>
       </c>
       <c r="E23">
-        <v>12.47360218505496</v>
+        <v>7.71121514720639</v>
       </c>
       <c r="F23">
-        <v>28.48224721892077</v>
+        <v>21.71749745613452</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>25.50589806074647</v>
+        <v>16.02864194022839</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.46633207088693</v>
+        <v>13.97214956379036</v>
       </c>
       <c r="L23">
-        <v>10.17025823363533</v>
+        <v>6.854103816136517</v>
       </c>
       <c r="M23">
-        <v>13.84154177193536</v>
+        <v>11.16353193554154</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.40450228688652</v>
+        <v>16.91966866530201</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.87682994491839</v>
+        <v>15.57943225079013</v>
       </c>
       <c r="C24">
-        <v>9.024387903460191</v>
+        <v>8.005207409127424</v>
       </c>
       <c r="D24">
-        <v>6.198647224272744</v>
+        <v>5.910139262039669</v>
       </c>
       <c r="E24">
-        <v>12.51168014403413</v>
+        <v>7.70925801987004</v>
       </c>
       <c r="F24">
-        <v>28.5111335624242</v>
+        <v>21.16013331232571</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>25.63358055586033</v>
+        <v>16.18851218266059</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.141737504510816</v>
+        <v>13.08331359168183</v>
       </c>
       <c r="L24">
-        <v>10.16975623065489</v>
+        <v>6.680852711396265</v>
       </c>
       <c r="M24">
-        <v>13.75500706483619</v>
+        <v>10.49405112332927</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.50217349281429</v>
+        <v>16.85181951370141</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.40128735973736</v>
+        <v>14.13180675142472</v>
       </c>
       <c r="C25">
-        <v>8.95814627812927</v>
+        <v>7.794506318241683</v>
       </c>
       <c r="D25">
-        <v>6.107855067381927</v>
+        <v>5.656809748726149</v>
       </c>
       <c r="E25">
-        <v>12.55891101244194</v>
+        <v>7.723137750669755</v>
       </c>
       <c r="F25">
-        <v>28.56784812859129</v>
+        <v>20.62571401761211</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>25.78804359965008</v>
+        <v>16.41406860260292</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.781662443960293</v>
+        <v>12.05447396835535</v>
       </c>
       <c r="L25">
-        <v>10.17439123026892</v>
+        <v>6.501749490059136</v>
       </c>
       <c r="M25">
-        <v>13.66782606666557</v>
+        <v>9.858676641455689</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.62623061960794</v>
+        <v>16.84035911932295</v>
       </c>
     </row>
   </sheetData>
